--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il1b-Il1rap.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il1b-Il1rap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.2689485</v>
+        <v>0.1375715</v>
       </c>
       <c r="H2">
-        <v>0.5378970000000001</v>
+        <v>0.275143</v>
       </c>
       <c r="I2">
-        <v>0.0006726644372413392</v>
+        <v>3.272648275833727E-05</v>
       </c>
       <c r="J2">
-        <v>0.0004485435312549028</v>
+        <v>2.181817268367789E-05</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.974591</v>
+        <v>4.391406</v>
       </c>
       <c r="N2">
-        <v>3.949182</v>
+        <v>8.782812</v>
       </c>
       <c r="O2">
-        <v>0.06180909787364695</v>
+        <v>0.04903950466333907</v>
       </c>
       <c r="P2">
-        <v>0.04563698887180197</v>
+        <v>0.03453691982955612</v>
       </c>
       <c r="Q2">
-        <v>0.5310632875635001</v>
+        <v>0.6041323105290001</v>
       </c>
       <c r="R2">
-        <v>2.124253150254</v>
+        <v>2.416529242116</v>
       </c>
       <c r="S2">
-        <v>4.157678203757158E-05</v>
+        <v>1.604890503842166E-06</v>
       </c>
       <c r="T2">
-        <v>2.047017614439876E-05</v>
+        <v>7.535324808035946E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.2689485</v>
+        <v>0.1375715</v>
       </c>
       <c r="H3">
-        <v>0.5378970000000001</v>
+        <v>0.275143</v>
       </c>
       <c r="I3">
-        <v>0.0006726644372413392</v>
+        <v>3.272648275833727E-05</v>
       </c>
       <c r="J3">
-        <v>0.0004485435312549028</v>
+        <v>2.181817268367789E-05</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.979832333333333</v>
+        <v>7.979832333333334</v>
       </c>
       <c r="N3">
         <v>23.939497</v>
       </c>
       <c r="O3">
-        <v>0.2497865318469964</v>
+        <v>0.08911201217176548</v>
       </c>
       <c r="P3">
-        <v>0.2766462923677705</v>
+        <v>0.09413801509686184</v>
       </c>
       <c r="Q3">
-        <v>2.1461639363015</v>
+        <v>1.097797503845167</v>
       </c>
       <c r="R3">
-        <v>12.876983617809</v>
+        <v>6.586785023071001</v>
       </c>
       <c r="S3">
-        <v>0.0001680225168753257</v>
+        <v>2.916322729900024E-06</v>
       </c>
       <c r="T3">
-        <v>0.000124087904887216</v>
+        <v>2.053919469482008E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.2689485</v>
+        <v>0.1375715</v>
       </c>
       <c r="H4">
-        <v>0.5378970000000001</v>
+        <v>0.275143</v>
       </c>
       <c r="I4">
-        <v>0.0006726644372413392</v>
+        <v>3.272648275833727E-05</v>
       </c>
       <c r="J4">
-        <v>0.0004485435312549028</v>
+        <v>2.181817268367789E-05</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.758748</v>
+        <v>10.281678</v>
       </c>
       <c r="N4">
-        <v>23.276244</v>
+        <v>30.845034</v>
       </c>
       <c r="O4">
-        <v>0.2428660996170663</v>
+        <v>0.114817075949696</v>
       </c>
       <c r="P4">
-        <v>0.2689817001103893</v>
+        <v>0.1212928691173092</v>
       </c>
       <c r="Q4">
-        <v>2.086703636478</v>
+        <v>1.414465864977</v>
       </c>
       <c r="R4">
-        <v>12.520221818868</v>
+        <v>8.486795189862001</v>
       </c>
       <c r="S4">
-        <v>0.0001633673882239129</v>
+        <v>3.757559056430427E-06</v>
       </c>
       <c r="T4">
-        <v>0.0001206500016104613</v>
+        <v>2.646388763700193E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.2689485</v>
+        <v>0.1375715</v>
       </c>
       <c r="H5">
-        <v>0.5378970000000001</v>
+        <v>0.275143</v>
       </c>
       <c r="I5">
-        <v>0.0006726644372413392</v>
+        <v>3.272648275833727E-05</v>
       </c>
       <c r="J5">
-        <v>0.0004485435312549028</v>
+        <v>2.181817268367789E-05</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.330557000000001</v>
+        <v>9.951477499999999</v>
       </c>
       <c r="N5">
-        <v>14.661114</v>
+        <v>19.902955</v>
       </c>
       <c r="O5">
-        <v>0.2294627672674229</v>
+        <v>0.1111296762969226</v>
       </c>
       <c r="P5">
-        <v>0.1694247306065459</v>
+        <v>0.07826499772581527</v>
       </c>
       <c r="Q5">
-        <v>1.9715423093145</v>
+        <v>1.36903968689125</v>
       </c>
       <c r="R5">
-        <v>7.886169237258001</v>
+        <v>5.476158747565</v>
       </c>
       <c r="S5">
-        <v>0.0001543514432117814</v>
+        <v>3.636883435270841E-06</v>
       </c>
       <c r="T5">
-        <v>7.599436694817071E-05</v>
+        <v>1.707599235469495E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.2689485</v>
+        <v>0.1375715</v>
       </c>
       <c r="H6">
-        <v>0.5378970000000001</v>
+        <v>0.275143</v>
       </c>
       <c r="I6">
-        <v>0.0006726644372413392</v>
+        <v>3.272648275833727E-05</v>
       </c>
       <c r="J6">
-        <v>0.0004485435312549028</v>
+        <v>2.181817268367789E-05</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.249720666666667</v>
+        <v>52.560594</v>
       </c>
       <c r="N6">
-        <v>6.749162</v>
+        <v>157.681782</v>
       </c>
       <c r="O6">
-        <v>0.07042126945497384</v>
+        <v>0.586952218622207</v>
       </c>
       <c r="P6">
-        <v>0.07799372910339122</v>
+        <v>0.6200568865091892</v>
       </c>
       <c r="Q6">
-        <v>0.605058998719</v>
+        <v>7.230839757471001</v>
       </c>
       <c r="R6">
-        <v>3.630353992314001</v>
+        <v>43.385038544826</v>
       </c>
       <c r="S6">
-        <v>4.736988358775069E-05</v>
+        <v>1.920888166270747E-05</v>
       </c>
       <c r="T6">
-        <v>3.498358266777338E-05</v>
+        <v>1.352850822356115E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.2689485</v>
+        <v>0.1375715</v>
       </c>
       <c r="H7">
-        <v>0.5378970000000001</v>
+        <v>0.275143</v>
       </c>
       <c r="I7">
-        <v>0.0006726644372413392</v>
+        <v>3.272648275833727E-05</v>
       </c>
       <c r="J7">
-        <v>0.0004485435312549028</v>
+        <v>2.181817268367789E-05</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.653158666666667</v>
+        <v>4.383347333333333</v>
       </c>
       <c r="N7">
-        <v>13.959476</v>
+        <v>13.150042</v>
       </c>
       <c r="O7">
-        <v>0.1456542339398937</v>
+        <v>0.04894951229606984</v>
       </c>
       <c r="P7">
-        <v>0.1613165589401012</v>
+        <v>0.05171031172126829</v>
       </c>
       <c r="Q7">
-        <v>1.251460043662</v>
+        <v>0.6030236676676667</v>
       </c>
       <c r="R7">
-        <v>7.508760261972001</v>
+        <v>3.618142006006</v>
       </c>
       <c r="S7">
-        <v>9.797642330499693E-05</v>
+        <v>1.601945370186348E-06</v>
       </c>
       <c r="T7">
-        <v>7.235749899688264E-05</v>
+        <v>1.128224510661444E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>186.092458</v>
+        <v>431.7905373333334</v>
       </c>
       <c r="H8">
-        <v>558.277374</v>
+        <v>1295.371612</v>
       </c>
       <c r="I8">
-        <v>0.4654340088731765</v>
+        <v>0.1027173911402618</v>
       </c>
       <c r="J8">
-        <v>0.4655383925801297</v>
+        <v>0.1027198275811131</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.974591</v>
+        <v>4.391406</v>
       </c>
       <c r="N8">
-        <v>3.949182</v>
+        <v>8.782812</v>
       </c>
       <c r="O8">
-        <v>0.06180909787364695</v>
+        <v>0.04903950466333907</v>
       </c>
       <c r="P8">
-        <v>0.04563698887180197</v>
+        <v>0.03453691982955612</v>
       </c>
       <c r="Q8">
-        <v>367.456492734678</v>
+        <v>1896.167556388824</v>
       </c>
       <c r="R8">
-        <v>2204.738956408068</v>
+        <v>11377.00533833295</v>
       </c>
       <c r="S8">
-        <v>0.02876805620816603</v>
+        <v>0.005037209981828889</v>
       </c>
       <c r="T8">
-        <v>0.02124577044157596</v>
+        <v>0.00354762645007473</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>186.092458</v>
+        <v>431.7905373333334</v>
       </c>
       <c r="H9">
-        <v>558.277374</v>
+        <v>1295.371612</v>
       </c>
       <c r="I9">
-        <v>0.4654340088731765</v>
+        <v>0.1027173911402618</v>
       </c>
       <c r="J9">
-        <v>0.4655383925801297</v>
+        <v>0.1027198275811131</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.979832333333333</v>
+        <v>7.979832333333334</v>
       </c>
       <c r="N9">
         <v>23.939497</v>
       </c>
       <c r="O9">
-        <v>0.2497865318469964</v>
+        <v>0.08911201217176548</v>
       </c>
       <c r="P9">
-        <v>0.2766462923677705</v>
+        <v>0.09413801509686184</v>
       </c>
       <c r="Q9">
-        <v>1484.986613337875</v>
+        <v>3445.616091039908</v>
       </c>
       <c r="R9">
-        <v>13364.87952004088</v>
+        <v>31010.54481935917</v>
       </c>
       <c r="S9">
-        <v>0.1162591468800749</v>
+        <v>0.009153353409543001</v>
       </c>
       <c r="T9">
-        <v>0.1287894702621445</v>
+        <v>0.009669840679577867</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>186.092458</v>
+        <v>431.7905373333334</v>
       </c>
       <c r="H10">
-        <v>558.277374</v>
+        <v>1295.371612</v>
       </c>
       <c r="I10">
-        <v>0.4654340088731765</v>
+        <v>0.1027173911402618</v>
       </c>
       <c r="J10">
-        <v>0.4655383925801297</v>
+        <v>0.1027198275811131</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.758748</v>
+        <v>10.281678</v>
       </c>
       <c r="N10">
-        <v>23.276244</v>
+        <v>30.845034</v>
       </c>
       <c r="O10">
-        <v>0.2428660996170663</v>
+        <v>0.114817075949696</v>
       </c>
       <c r="P10">
-        <v>0.2689817001103893</v>
+        <v>0.1212928691173092</v>
       </c>
       <c r="Q10">
-        <v>1443.844486322584</v>
+        <v>4439.531268308312</v>
       </c>
       <c r="R10">
-        <v>12994.60037690326</v>
+        <v>39955.78141477481</v>
       </c>
       <c r="S10">
-        <v>0.1130381423641634</v>
+        <v>0.01179371049990607</v>
       </c>
       <c r="T10">
-        <v>0.1252213083028611</v>
+        <v>0.01245918260254851</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>186.092458</v>
+        <v>431.7905373333334</v>
       </c>
       <c r="H11">
-        <v>558.277374</v>
+        <v>1295.371612</v>
       </c>
       <c r="I11">
-        <v>0.4654340088731765</v>
+        <v>0.1027173911402618</v>
       </c>
       <c r="J11">
-        <v>0.4655383925801297</v>
+        <v>0.1027198275811131</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.330557000000001</v>
+        <v>9.951477499999999</v>
       </c>
       <c r="N11">
-        <v>14.661114</v>
+        <v>19.902955</v>
       </c>
       <c r="O11">
-        <v>0.2294627672674229</v>
+        <v>0.1111296762969226</v>
       </c>
       <c r="P11">
-        <v>0.1694247306065459</v>
+        <v>0.07826499772581527</v>
       </c>
       <c r="Q11">
-        <v>1364.161370639106</v>
+        <v>4296.953816985577</v>
       </c>
       <c r="R11">
-        <v>8184.968223834637</v>
+        <v>25781.72290191346</v>
       </c>
       <c r="S11">
-        <v>0.1067997756564093</v>
+        <v>0.01141495042748168</v>
       </c>
       <c r="T11">
-        <v>0.07887371674989288</v>
+        <v>0.00803936707203195</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>186.092458</v>
+        <v>431.7905373333334</v>
       </c>
       <c r="H12">
-        <v>558.277374</v>
+        <v>1295.371612</v>
       </c>
       <c r="I12">
-        <v>0.4654340088731765</v>
+        <v>0.1027173911402618</v>
       </c>
       <c r="J12">
-        <v>0.4655383925801297</v>
+        <v>0.1027198275811131</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.249720666666667</v>
+        <v>52.560594</v>
       </c>
       <c r="N12">
-        <v>6.749162</v>
+        <v>157.681782</v>
       </c>
       <c r="O12">
-        <v>0.07042126945497384</v>
+        <v>0.586952218622207</v>
       </c>
       <c r="P12">
-        <v>0.07799372910339122</v>
+        <v>0.6200568865091892</v>
       </c>
       <c r="Q12">
-        <v>418.6560486733987</v>
+        <v>22695.16712581918</v>
       </c>
       <c r="R12">
-        <v>3767.904438060588</v>
+        <v>204256.5041323726</v>
       </c>
       <c r="S12">
-        <v>0.03277645375236665</v>
+        <v>0.06029020062086167</v>
       </c>
       <c r="T12">
-        <v>0.03630907527812283</v>
+        <v>0.0636921364727057</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,14 +1210,14 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>186.092458</v>
+        <v>431.7905373333334</v>
       </c>
       <c r="H13">
-        <v>558.277374</v>
+        <v>1295.371612</v>
       </c>
       <c r="I13">
-        <v>0.4654340088731765</v>
+        <v>0.1027173911402618</v>
       </c>
       <c r="J13">
-        <v>0.4655383925801297</v>
+        <v>0.1027198275811131</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.653158666666667</v>
+        <v>4.383347333333333</v>
       </c>
       <c r="N13">
-        <v>13.959476</v>
+        <v>13.150042</v>
       </c>
       <c r="O13">
-        <v>0.1456542339398937</v>
+        <v>0.04894951229606984</v>
       </c>
       <c r="P13">
-        <v>0.1613165589401012</v>
+        <v>0.05171031172126829</v>
       </c>
       <c r="Q13">
-        <v>865.9177337440027</v>
+        <v>1892.687900378634</v>
       </c>
       <c r="R13">
-        <v>7793.259603696024</v>
+        <v>17034.19110340771</v>
       </c>
       <c r="S13">
-        <v>0.06779243401199619</v>
+        <v>0.005027966200640458</v>
       </c>
       <c r="T13">
-        <v>0.07509905154553245</v>
+        <v>0.005311674304174289</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>1.342380333333334</v>
+        <v>0.161553</v>
       </c>
       <c r="H14">
-        <v>4.027141</v>
+        <v>0.323106</v>
       </c>
       <c r="I14">
-        <v>0.003357414194485219</v>
+        <v>3.843137182525204E-05</v>
       </c>
       <c r="J14">
-        <v>0.003358167167694559</v>
+        <v>2.562152227435343E-05</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.974591</v>
+        <v>4.391406</v>
       </c>
       <c r="N14">
-        <v>3.949182</v>
+        <v>8.782812</v>
       </c>
       <c r="O14">
-        <v>0.06180909787364695</v>
+        <v>0.04903950466333907</v>
       </c>
       <c r="P14">
-        <v>0.04563698887180197</v>
+        <v>0.03453691982955612</v>
       </c>
       <c r="Q14">
-        <v>2.650652124777</v>
+        <v>0.709444813518</v>
       </c>
       <c r="R14">
-        <v>15.903912748662</v>
+        <v>2.837779254072</v>
       </c>
       <c r="S14">
-        <v>0.0002075187425493084</v>
+        <v>1.884655437842965E-06</v>
       </c>
       <c r="T14">
-        <v>0.0001532566376617273</v>
+        <v>8.848884607005309E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>1.342380333333334</v>
+        <v>0.161553</v>
       </c>
       <c r="H15">
-        <v>4.027141</v>
+        <v>0.323106</v>
       </c>
       <c r="I15">
-        <v>0.003357414194485219</v>
+        <v>3.843137182525204E-05</v>
       </c>
       <c r="J15">
-        <v>0.003358167167694559</v>
+        <v>2.562152227435343E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.979832333333333</v>
+        <v>7.979832333333334</v>
       </c>
       <c r="N15">
         <v>23.939497</v>
       </c>
       <c r="O15">
-        <v>0.2497865318469964</v>
+        <v>0.08911201217176548</v>
       </c>
       <c r="P15">
-        <v>0.2766462923677705</v>
+        <v>0.09413801509686184</v>
       </c>
       <c r="Q15">
-        <v>10.71196998756411</v>
+        <v>1.289165852947</v>
       </c>
       <c r="R15">
-        <v>96.407729888077</v>
+        <v>7.734995117682001</v>
       </c>
       <c r="S15">
-        <v>0.00083863684761434</v>
+        <v>3.424696873869505E-06</v>
       </c>
       <c r="T15">
-        <v>0.0009290244960938768</v>
+        <v>2.411959250667665E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>1.342380333333334</v>
+        <v>0.161553</v>
       </c>
       <c r="H16">
-        <v>4.027141</v>
+        <v>0.323106</v>
       </c>
       <c r="I16">
-        <v>0.003357414194485219</v>
+        <v>3.843137182525204E-05</v>
       </c>
       <c r="J16">
-        <v>0.003358167167694559</v>
+        <v>2.562152227435343E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.758748</v>
+        <v>10.281678</v>
       </c>
       <c r="N16">
-        <v>23.276244</v>
+        <v>30.845034</v>
       </c>
       <c r="O16">
-        <v>0.2428660996170663</v>
+        <v>0.114817075949696</v>
       </c>
       <c r="P16">
-        <v>0.2689817001103893</v>
+        <v>0.1212928691173092</v>
       </c>
       <c r="Q16">
-        <v>10.41519072648933</v>
+        <v>1.661035925934</v>
       </c>
       <c r="R16">
-        <v>93.736716538404</v>
+        <v>9.966215555604</v>
       </c>
       <c r="S16">
-        <v>0.0008154020902135995</v>
+        <v>4.412577737710971E-06</v>
       </c>
       <c r="T16">
-        <v>0.0009032855140213733</v>
+        <v>3.107707947809373E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>1.342380333333334</v>
+        <v>0.161553</v>
       </c>
       <c r="H17">
-        <v>4.027141</v>
+        <v>0.323106</v>
       </c>
       <c r="I17">
-        <v>0.003357414194485219</v>
+        <v>3.843137182525204E-05</v>
       </c>
       <c r="J17">
-        <v>0.003358167167694559</v>
+        <v>2.562152227435343E-05</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.330557000000001</v>
+        <v>9.951477499999999</v>
       </c>
       <c r="N17">
-        <v>14.661114</v>
+        <v>19.902955</v>
       </c>
       <c r="O17">
-        <v>0.2294627672674229</v>
+        <v>0.1111296762969226</v>
       </c>
       <c r="P17">
-        <v>0.1694247306065459</v>
+        <v>0.07826499772581527</v>
       </c>
       <c r="Q17">
-        <v>9.840395549179002</v>
+        <v>1.6076910445575</v>
       </c>
       <c r="R17">
-        <v>59.04237329507401</v>
+        <v>6.43076417823</v>
       </c>
       <c r="S17">
-        <v>0.0007704015519295038</v>
+        <v>4.270865910586932E-06</v>
       </c>
       <c r="T17">
-        <v>0.0005689565677183979</v>
+        <v>2.005268382534197E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>1.342380333333334</v>
+        <v>0.161553</v>
       </c>
       <c r="H18">
-        <v>4.027141</v>
+        <v>0.323106</v>
       </c>
       <c r="I18">
-        <v>0.003357414194485219</v>
+        <v>3.843137182525204E-05</v>
       </c>
       <c r="J18">
-        <v>0.003358167167694559</v>
+        <v>2.562152227435343E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.249720666666667</v>
+        <v>52.560594</v>
       </c>
       <c r="N18">
-        <v>6.749162</v>
+        <v>157.681782</v>
       </c>
       <c r="O18">
-        <v>0.07042126945497384</v>
+        <v>0.586952218622207</v>
       </c>
       <c r="P18">
-        <v>0.07799372910339122</v>
+        <v>0.6200568865091892</v>
       </c>
       <c r="Q18">
-        <v>3.01998077842689</v>
+        <v>8.491321642482001</v>
       </c>
       <c r="R18">
-        <v>27.179827005842</v>
+        <v>50.947929854892</v>
       </c>
       <c r="S18">
-        <v>0.0002364333696617976</v>
+        <v>2.255737895752667E-05</v>
       </c>
       <c r="T18">
-        <v>0.000261915980361072</v>
+        <v>1.588680132906143E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>1.342380333333334</v>
+        <v>0.161553</v>
       </c>
       <c r="H19">
-        <v>4.027141</v>
+        <v>0.323106</v>
       </c>
       <c r="I19">
-        <v>0.003357414194485219</v>
+        <v>3.843137182525204E-05</v>
       </c>
       <c r="J19">
-        <v>0.003358167167694559</v>
+        <v>2.562152227435343E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.653158666666667</v>
+        <v>4.383347333333333</v>
       </c>
       <c r="N19">
-        <v>13.959476</v>
+        <v>13.150042</v>
       </c>
       <c r="O19">
-        <v>0.1456542339398937</v>
+        <v>0.04894951229606984</v>
       </c>
       <c r="P19">
-        <v>0.1613165589401012</v>
+        <v>0.05171031172126829</v>
       </c>
       <c r="Q19">
-        <v>6.246308682012891</v>
+        <v>0.7081429117419999</v>
       </c>
       <c r="R19">
-        <v>56.21677813811601</v>
+        <v>4.248857470452</v>
       </c>
       <c r="S19">
-        <v>0.0004890215925166697</v>
+        <v>1.881196907715007E-06</v>
       </c>
       <c r="T19">
-        <v>0.000541727971838112</v>
+        <v>1.324896903580235E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>212.1218693333334</v>
+        <v>3686.879476</v>
       </c>
       <c r="H20">
-        <v>636.3656080000001</v>
+        <v>11060.638428</v>
       </c>
       <c r="I20">
-        <v>0.5305359124950968</v>
+        <v>0.8770610017582243</v>
       </c>
       <c r="J20">
-        <v>0.5306548967209209</v>
+        <v>0.8770818055114159</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.974591</v>
+        <v>4.391406</v>
       </c>
       <c r="N20">
-        <v>3.949182</v>
+        <v>8.782812</v>
       </c>
       <c r="O20">
-        <v>0.06180909787364695</v>
+        <v>0.04903950466333907</v>
       </c>
       <c r="P20">
-        <v>0.04563698887180197</v>
+        <v>0.03453691982955612</v>
       </c>
       <c r="Q20">
-        <v>418.853934088776</v>
+        <v>16190.58465218326</v>
       </c>
       <c r="R20">
-        <v>2513.123604532656</v>
+        <v>97143.50791309953</v>
       </c>
       <c r="S20">
-        <v>0.03279194614089403</v>
+        <v>0.04301063708575528</v>
       </c>
       <c r="T20">
-        <v>0.0242174916164199</v>
+        <v>0.03029170400091011</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,13 +1706,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>212.1218693333334</v>
+        <v>3686.879476</v>
       </c>
       <c r="H21">
-        <v>636.3656080000001</v>
+        <v>11060.638428</v>
       </c>
       <c r="I21">
-        <v>0.5305359124950968</v>
+        <v>0.8770610017582243</v>
       </c>
       <c r="J21">
-        <v>0.5306548967209209</v>
+        <v>0.8770818055114159</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.979832333333333</v>
+        <v>7.979832333333334</v>
       </c>
       <c r="N21">
         <v>23.939497</v>
       </c>
       <c r="O21">
-        <v>0.2497865318469964</v>
+        <v>0.08911201217176548</v>
       </c>
       <c r="P21">
-        <v>0.2766462923677705</v>
+        <v>0.09413801509686184</v>
       </c>
       <c r="Q21">
-        <v>1692.696951513242</v>
+        <v>29420.68005168786</v>
       </c>
       <c r="R21">
-        <v>15234.27256361918</v>
+        <v>264786.1204651907</v>
       </c>
       <c r="S21">
-        <v>0.1325207256024318</v>
+        <v>0.07815667066405971</v>
       </c>
       <c r="T21">
-        <v>0.146803709704645</v>
+        <v>0.08256674024841651</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>212.1218693333334</v>
+        <v>3686.879476</v>
       </c>
       <c r="H22">
-        <v>636.3656080000001</v>
+        <v>11060.638428</v>
       </c>
       <c r="I22">
-        <v>0.5305359124950968</v>
+        <v>0.8770610017582243</v>
       </c>
       <c r="J22">
-        <v>0.5306548967209209</v>
+        <v>0.8770818055114159</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.758748</v>
+        <v>10.281678</v>
       </c>
       <c r="N22">
-        <v>23.276244</v>
+        <v>30.845034</v>
       </c>
       <c r="O22">
-        <v>0.2428660996170663</v>
+        <v>0.114817075949696</v>
       </c>
       <c r="P22">
-        <v>0.2689817001103893</v>
+        <v>0.1212928691173092</v>
       </c>
       <c r="Q22">
-        <v>1645.800129446262</v>
+        <v>37907.30759704073</v>
       </c>
       <c r="R22">
-        <v>14812.20116501635</v>
+        <v>341165.7683733666</v>
       </c>
       <c r="S22">
-        <v>0.1288491877744653</v>
+        <v>0.1007015796513905</v>
       </c>
       <c r="T22">
-        <v>0.1427364562918964</v>
+        <v>0.1063837686410694</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,13 +1830,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>212.1218693333334</v>
+        <v>3686.879476</v>
       </c>
       <c r="H23">
-        <v>636.3656080000001</v>
+        <v>11060.638428</v>
       </c>
       <c r="I23">
-        <v>0.5305359124950968</v>
+        <v>0.8770610017582243</v>
       </c>
       <c r="J23">
-        <v>0.5306548967209209</v>
+        <v>0.8770818055114159</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.330557000000001</v>
+        <v>9.951477499999999</v>
       </c>
       <c r="N23">
-        <v>14.661114</v>
+        <v>19.902955</v>
       </c>
       <c r="O23">
-        <v>0.2294627672674229</v>
+        <v>0.1111296762969226</v>
       </c>
       <c r="P23">
-        <v>0.1694247306065459</v>
+        <v>0.07826499772581527</v>
       </c>
       <c r="Q23">
-        <v>1554.971454094552</v>
+        <v>36689.89815062579</v>
       </c>
       <c r="R23">
-        <v>9329.828724567315</v>
+        <v>220139.3889037547</v>
       </c>
       <c r="S23">
-        <v>0.1217382386158722</v>
+        <v>0.09746750521804616</v>
       </c>
       <c r="T23">
-        <v>0.08990606292198645</v>
+        <v>0.06864480551370492</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>212.1218693333334</v>
+        <v>3686.879476</v>
       </c>
       <c r="H24">
-        <v>636.3656080000001</v>
+        <v>11060.638428</v>
       </c>
       <c r="I24">
-        <v>0.5305359124950968</v>
+        <v>0.8770610017582243</v>
       </c>
       <c r="J24">
-        <v>0.5306548967209209</v>
+        <v>0.8770818055114159</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.249720666666667</v>
+        <v>52.560594</v>
       </c>
       <c r="N24">
-        <v>6.749162</v>
+        <v>157.681782</v>
       </c>
       <c r="O24">
-        <v>0.07042126945497384</v>
+        <v>0.586952218622207</v>
       </c>
       <c r="P24">
-        <v>0.07799372910339122</v>
+        <v>0.6200568865091892</v>
       </c>
       <c r="Q24">
-        <v>477.2149532911663</v>
+        <v>193784.5752649688</v>
       </c>
       <c r="R24">
-        <v>4294.934579620496</v>
+        <v>1744061.177384719</v>
       </c>
       <c r="S24">
-        <v>0.03736101244935763</v>
+        <v>0.5147929008490052</v>
       </c>
       <c r="T24">
-        <v>0.04138775426223956</v>
+        <v>0.5438406135392668</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3686.879476</v>
+      </c>
+      <c r="H25">
+        <v>11060.638428</v>
+      </c>
+      <c r="I25">
+        <v>0.8770610017582243</v>
+      </c>
+      <c r="J25">
+        <v>0.8770818055114159</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.383347333333333</v>
+      </c>
+      <c r="N25">
+        <v>13.150042</v>
+      </c>
+      <c r="O25">
+        <v>0.04894951229606984</v>
+      </c>
+      <c r="P25">
+        <v>0.05171031172126829</v>
+      </c>
+      <c r="Q25">
+        <v>16160.873319446</v>
+      </c>
+      <c r="R25">
+        <v>145447.859875014</v>
+      </c>
+      <c r="S25">
+        <v>0.04293170828996754</v>
+      </c>
+      <c r="T25">
+        <v>0.04535417356804813</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>84.70594133333333</v>
+      </c>
+      <c r="H26">
+        <v>254.117824</v>
+      </c>
+      <c r="I26">
+        <v>0.02015044924693023</v>
+      </c>
+      <c r="J26">
+        <v>0.020150927212513</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.391406</v>
+      </c>
+      <c r="N26">
+        <v>8.782812</v>
+      </c>
+      <c r="O26">
+        <v>0.04903950466333907</v>
+      </c>
+      <c r="P26">
+        <v>0.03453691982955612</v>
+      </c>
+      <c r="Q26">
+        <v>371.978179006848</v>
+      </c>
+      <c r="R26">
+        <v>2231.869074041088</v>
+      </c>
+      <c r="S26">
+        <v>0.0009881680498132121</v>
+      </c>
+      <c r="T26">
+        <v>0.0006959509576297823</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>84.70594133333333</v>
+      </c>
+      <c r="H27">
+        <v>254.117824</v>
+      </c>
+      <c r="I27">
+        <v>0.02015044924693023</v>
+      </c>
+      <c r="J27">
+        <v>0.020150927212513</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>7.979832333333334</v>
+      </c>
+      <c r="N27">
+        <v>23.939497</v>
+      </c>
+      <c r="O27">
+        <v>0.08911201217176548</v>
+      </c>
+      <c r="P27">
+        <v>0.09413801509686184</v>
+      </c>
+      <c r="Q27">
+        <v>675.9392094771698</v>
+      </c>
+      <c r="R27">
+        <v>6083.452885294529</v>
+      </c>
+      <c r="S27">
+        <v>0.001795647078558989</v>
+      </c>
+      <c r="T27">
+        <v>0.001896968290147313</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>84.70594133333333</v>
+      </c>
+      <c r="H28">
+        <v>254.117824</v>
+      </c>
+      <c r="I28">
+        <v>0.02015044924693023</v>
+      </c>
+      <c r="J28">
+        <v>0.020150927212513</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>10.281678</v>
+      </c>
+      <c r="N28">
+        <v>30.845034</v>
+      </c>
+      <c r="O28">
+        <v>0.114817075949696</v>
+      </c>
+      <c r="P28">
+        <v>0.1212928691173092</v>
+      </c>
+      <c r="Q28">
+        <v>870.9192134762239</v>
+      </c>
+      <c r="R28">
+        <v>7838.272921286015</v>
+      </c>
+      <c r="S28">
+        <v>0.002313615661605282</v>
+      </c>
+      <c r="T28">
+        <v>0.002444163776979764</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>84.70594133333333</v>
+      </c>
+      <c r="H29">
+        <v>254.117824</v>
+      </c>
+      <c r="I29">
+        <v>0.02015044924693023</v>
+      </c>
+      <c r="J29">
+        <v>0.020150927212513</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>9.951477499999999</v>
+      </c>
+      <c r="N29">
+        <v>19.902955</v>
+      </c>
+      <c r="O29">
+        <v>0.1111296762969226</v>
+      </c>
+      <c r="P29">
+        <v>0.07826499772581527</v>
+      </c>
+      <c r="Q29">
+        <v>842.9492692949866</v>
+      </c>
+      <c r="R29">
+        <v>5057.69561576992</v>
+      </c>
+      <c r="S29">
+        <v>0.002239312902048925</v>
+      </c>
+      <c r="T29">
+        <v>0.001577112272460399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>212.1218693333334</v>
-      </c>
-      <c r="H25">
-        <v>636.3656080000001</v>
-      </c>
-      <c r="I25">
-        <v>0.5305359124950968</v>
-      </c>
-      <c r="J25">
-        <v>0.5306548967209209</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>4.653158666666667</v>
-      </c>
-      <c r="N25">
-        <v>13.959476</v>
-      </c>
-      <c r="O25">
-        <v>0.1456542339398937</v>
-      </c>
-      <c r="P25">
-        <v>0.1613165589401012</v>
-      </c>
-      <c r="Q25">
-        <v>987.0367146779345</v>
-      </c>
-      <c r="R25">
-        <v>8883.330432101409</v>
-      </c>
-      <c r="S25">
-        <v>0.07727480191207578</v>
-      </c>
-      <c r="T25">
-        <v>0.08560342192373376</v>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>84.70594133333333</v>
+      </c>
+      <c r="H30">
+        <v>254.117824</v>
+      </c>
+      <c r="I30">
+        <v>0.02015044924693023</v>
+      </c>
+      <c r="J30">
+        <v>0.020150927212513</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>52.560594</v>
+      </c>
+      <c r="N30">
+        <v>157.681782</v>
+      </c>
+      <c r="O30">
+        <v>0.586952218622207</v>
+      </c>
+      <c r="P30">
+        <v>0.6200568865091892</v>
+      </c>
+      <c r="Q30">
+        <v>4452.194591809151</v>
+      </c>
+      <c r="R30">
+        <v>40069.75132628236</v>
+      </c>
+      <c r="S30">
+        <v>0.01182735089171988</v>
+      </c>
+      <c r="T30">
+        <v>0.01249472118766411</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>84.70594133333333</v>
+      </c>
+      <c r="H31">
+        <v>254.117824</v>
+      </c>
+      <c r="I31">
+        <v>0.02015044924693023</v>
+      </c>
+      <c r="J31">
+        <v>0.020150927212513</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.383347333333333</v>
+      </c>
+      <c r="N31">
+        <v>13.150042</v>
+      </c>
+      <c r="O31">
+        <v>0.04894951229606984</v>
+      </c>
+      <c r="P31">
+        <v>0.05171031172126829</v>
+      </c>
+      <c r="Q31">
+        <v>371.2955620609564</v>
+      </c>
+      <c r="R31">
+        <v>3341.660058548608</v>
+      </c>
+      <c r="S31">
+        <v>0.0009863546631839425</v>
+      </c>
+      <c r="T31">
+        <v>0.001042010727631635</v>
       </c>
     </row>
   </sheetData>
